--- a/Documentação/em-andamento/calendario-planejamento-sprint.xlsx
+++ b/Documentação/em-andamento/calendario-planejamento-sprint.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{1B00E763-4B3F-411F-8E31-A34744DD0870}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09F1437-A2BC-4CEC-BAC3-7DFD51147551}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="788" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="788" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="14" r:id="rId1"/>
@@ -1354,6 +1354,39 @@
     <xf numFmtId="166" fontId="15" fillId="0" borderId="14" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="40" borderId="38" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="40" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="40" borderId="38" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="40" borderId="38" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="40" borderId="38" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="40" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="40" borderId="38" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="40" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1372,6 +1405,18 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="39" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="40" borderId="38" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="40" borderId="38" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1415,51 +1460,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="39" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="40" borderId="38" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="40" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="40" borderId="38" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="40" borderId="38" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="40" borderId="38" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="40" borderId="38" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="40" borderId="38" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="40" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="40" borderId="38" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="40" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -2431,12 +2431,12 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="57" t="str">
         <f>"Janeiro "&amp;AnoCalendário</f>
         <v>Janeiro 2021</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -2472,10 +2472,10 @@
         <f t="shared" si="0"/>
         <v>sábado</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="51"/>
+      <c r="L3" s="62"/>
     </row>
     <row r="4" spans="1:12" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
@@ -2673,23 +2673,23 @@
       <c r="C14" s="35">
         <v>44228</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="59"/>
     </row>
     <row r="15" spans="1:12" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2764,12 +2764,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="62" t="str">
+      <c r="B2" s="77" t="str">
         <f>"Outubro "&amp;AnoCalendário</f>
         <v>Outubro 2021</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -2990,23 +2990,23 @@
       <c r="C14" s="38">
         <v>44501</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="64"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="79"/>
     </row>
     <row r="15" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="66"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3067,12 +3067,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="62" t="str">
+      <c r="B2" s="77" t="str">
         <f>"Novembro "&amp;AnoCalendário</f>
         <v>Novembro 2021</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -3293,23 +3293,23 @@
       <c r="C14" s="38">
         <v>44536</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="64"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="79"/>
     </row>
     <row r="15" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="66"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3370,12 +3370,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="57" t="str">
         <f>"Dezembro "&amp;AnoCalendário</f>
         <v>Dezembro 2021</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -3596,23 +3596,23 @@
       <c r="C14" s="35">
         <v>44564</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="59"/>
     </row>
     <row r="15" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3673,12 +3673,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="57" t="str">
         <f>"Fevereiro "&amp;AnoCalendário</f>
         <v>Fevereiro 2021</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -3899,23 +3899,23 @@
       <c r="C14" s="35">
         <v>44263</v>
       </c>
-      <c r="D14" s="47" t="s">
+      <c r="D14" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="59"/>
     </row>
     <row r="15" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="50"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3960,7 +3960,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3979,12 +3979,12 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="68" t="str">
+      <c r="B2" s="63" t="str">
         <f>"Março "&amp;AnoCalendário</f>
         <v>Março 2021</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -3992,269 +3992,269 @@
     </row>
     <row r="3" spans="1:11" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
-      <c r="B3" s="69" t="str">
+      <c r="B3" s="46" t="str">
         <f>InícioDaSemana</f>
         <v>domingo</v>
       </c>
-      <c r="C3" s="79" t="str">
+      <c r="C3" s="54" t="str">
         <f t="shared" ref="C3:H3" si="0">TEXT(C4,"dddd")</f>
         <v>segunda-feira</v>
       </c>
-      <c r="D3" s="79" t="str">
+      <c r="D3" s="54" t="str">
         <f t="shared" si="0"/>
         <v>terça-feira</v>
       </c>
-      <c r="E3" s="79" t="str">
+      <c r="E3" s="54" t="str">
         <f t="shared" si="0"/>
         <v>quarta-feira</v>
       </c>
-      <c r="F3" s="79" t="str">
+      <c r="F3" s="54" t="str">
         <f t="shared" si="0"/>
         <v>quinta-feira</v>
       </c>
-      <c r="G3" s="79" t="str">
+      <c r="G3" s="54" t="str">
         <f t="shared" si="0"/>
         <v>sexta-feira</v>
       </c>
-      <c r="H3" s="69" t="str">
+      <c r="H3" s="46" t="str">
         <f t="shared" si="0"/>
         <v>sábado</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="70">
+      <c r="B4" s="47">
         <f t="array" ref="B4:H4">DiasESemanas+DATE(AnoCalendário,3,1)-WEEKDAY(DATE(AnoCalendário,3,1),(InícioDaSemana="segunda-feira")+1)+1</f>
         <v>44255</v>
       </c>
-      <c r="C4" s="70">
+      <c r="C4" s="47">
         <v>44256</v>
       </c>
-      <c r="D4" s="70">
+      <c r="D4" s="47">
         <v>44257</v>
       </c>
-      <c r="E4" s="70">
+      <c r="E4" s="47">
         <v>44258</v>
       </c>
-      <c r="F4" s="70">
+      <c r="F4" s="47">
         <v>44259</v>
       </c>
-      <c r="G4" s="70">
+      <c r="G4" s="47">
         <v>44260</v>
       </c>
-      <c r="H4" s="70">
+      <c r="H4" s="47">
         <v>44261</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
     </row>
     <row r="6" spans="1:11" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="72">
+      <c r="B6" s="49">
         <f t="array" ref="B6:H6">DiasESemanas+DATE(AnoCalendário,3,1)-WEEKDAY(DATE(AnoCalendário,3,1),(InícioDaSemana="segunda-feira")+1)+8</f>
         <v>44262</v>
       </c>
-      <c r="C6" s="72">
+      <c r="C6" s="49">
         <v>44263</v>
       </c>
-      <c r="D6" s="72">
+      <c r="D6" s="49">
         <v>44264</v>
       </c>
-      <c r="E6" s="72">
+      <c r="E6" s="49">
         <v>44265</v>
       </c>
-      <c r="F6" s="72">
+      <c r="F6" s="49">
         <v>44266</v>
       </c>
-      <c r="G6" s="72">
+      <c r="G6" s="49">
         <v>44267</v>
       </c>
-      <c r="H6" s="72">
+      <c r="H6" s="49">
         <v>44268</v>
       </c>
-      <c r="K6" s="77"/>
+      <c r="K6" s="52"/>
     </row>
     <row r="7" spans="1:11" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="74">
+      <c r="B8" s="51">
         <f t="array" ref="B8:H8">DiasESemanas+DATE(AnoCalendário,3,1)-WEEKDAY(DATE(AnoCalendário,3,1),(InícioDaSemana="segunda-feira")+1)+15</f>
         <v>44269</v>
       </c>
-      <c r="C8" s="74">
+      <c r="C8" s="51">
         <v>44270</v>
       </c>
-      <c r="D8" s="74">
+      <c r="D8" s="51">
         <v>44271</v>
       </c>
-      <c r="E8" s="74">
+      <c r="E8" s="51">
         <v>44272</v>
       </c>
-      <c r="F8" s="74">
+      <c r="F8" s="51">
         <v>44273</v>
       </c>
-      <c r="G8" s="74">
+      <c r="G8" s="51">
         <v>44274</v>
       </c>
-      <c r="H8" s="74">
+      <c r="H8" s="51">
         <v>44275</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="71" t="s">
+      <c r="G9" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="81" t="s">
+      <c r="H9" s="56" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" s="72">
+      <c r="B10" s="49">
         <f t="array" ref="B10:H10">DiasESemanas+DATE(AnoCalendário,3,1)-WEEKDAY(DATE(AnoCalendário,3,1),(InícioDaSemana="segunda-feira")+1)+22</f>
         <v>44276</v>
       </c>
-      <c r="C10" s="72">
+      <c r="C10" s="49">
         <v>44277</v>
       </c>
-      <c r="D10" s="72">
+      <c r="D10" s="49">
         <v>44278</v>
       </c>
-      <c r="E10" s="72">
+      <c r="E10" s="49">
         <v>44279</v>
       </c>
-      <c r="F10" s="72">
+      <c r="F10" s="49">
         <v>44280</v>
       </c>
-      <c r="G10" s="72">
+      <c r="G10" s="49">
         <v>44281</v>
       </c>
-      <c r="H10" s="72">
+      <c r="H10" s="49">
         <v>44282</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="71" t="s">
+      <c r="B11" s="50"/>
+      <c r="C11" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="81" t="s">
+      <c r="H11" s="56" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
-      <c r="B12" s="74">
+      <c r="B12" s="51">
         <f t="array" ref="B12:H12">DiasESemanas+DATE(AnoCalendário,3,1)-WEEKDAY(DATE(AnoCalendário,3,1),(InícioDaSemana="segunda-feira")+1)+29</f>
         <v>44283</v>
       </c>
-      <c r="C12" s="74">
+      <c r="C12" s="51">
         <v>44284</v>
       </c>
-      <c r="D12" s="74">
+      <c r="D12" s="51">
         <v>44285</v>
       </c>
-      <c r="E12" s="74">
+      <c r="E12" s="51">
         <v>44286</v>
       </c>
-      <c r="F12" s="74">
+      <c r="F12" s="51">
         <v>44287</v>
       </c>
-      <c r="G12" s="74">
+      <c r="G12" s="51">
         <v>44288</v>
       </c>
-      <c r="H12" s="74">
+      <c r="H12" s="51">
         <v>44289</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71" t="s">
+      <c r="B13" s="48"/>
+      <c r="C13" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
     </row>
     <row r="14" spans="1:11" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" s="72">
+      <c r="B14" s="49">
         <f t="array" ref="B14:C14">DiasESemanas+DATE(AnoCalendário,3,1)-WEEKDAY(DATE(AnoCalendário,3,1),(InícioDaSemana="segunda-feira")+1)+36</f>
         <v>44290</v>
       </c>
-      <c r="C14" s="72">
+      <c r="C14" s="49">
         <v>44291</v>
       </c>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
     </row>
     <row r="15" spans="1:11" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="76" t="s">
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4297,8 +4297,8 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4316,12 +4316,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="67" t="str">
+      <c r="B2" s="66" t="str">
         <f>"Abril "&amp;AnoCalendário</f>
         <v>Abril 2021</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -4329,272 +4329,272 @@
     </row>
     <row r="3" spans="1:9" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
-      <c r="B3" s="69" t="str">
+      <c r="B3" s="46" t="str">
         <f>InícioDaSemana</f>
         <v>domingo</v>
       </c>
-      <c r="C3" s="79" t="str">
+      <c r="C3" s="54" t="str">
         <f t="shared" ref="C3:H3" si="0">TEXT(C4,"dddd")</f>
         <v>segunda-feira</v>
       </c>
-      <c r="D3" s="79" t="str">
+      <c r="D3" s="54" t="str">
         <f t="shared" si="0"/>
         <v>terça-feira</v>
       </c>
-      <c r="E3" s="79" t="str">
+      <c r="E3" s="54" t="str">
         <f t="shared" si="0"/>
         <v>quarta-feira</v>
       </c>
-      <c r="F3" s="79" t="str">
+      <c r="F3" s="54" t="str">
         <f t="shared" si="0"/>
         <v>quinta-feira</v>
       </c>
-      <c r="G3" s="79" t="str">
+      <c r="G3" s="54" t="str">
         <f t="shared" si="0"/>
         <v>sexta-feira</v>
       </c>
-      <c r="H3" s="69" t="str">
+      <c r="H3" s="46" t="str">
         <f t="shared" si="0"/>
         <v>sábado</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="70">
+      <c r="B4" s="47">
         <f t="array" ref="B4:H4">DiasESemanas+DATE(AnoCalendário,4,1)-WEEKDAY(DATE(AnoCalendário,4,1),(InícioDaSemana="segunda-feira")+1)+1</f>
         <v>44283</v>
       </c>
-      <c r="C4" s="70">
+      <c r="C4" s="47">
         <v>44284</v>
       </c>
-      <c r="D4" s="70">
+      <c r="D4" s="47">
         <v>44285</v>
       </c>
-      <c r="E4" s="70">
+      <c r="E4" s="47">
         <v>44286</v>
       </c>
-      <c r="F4" s="70">
+      <c r="F4" s="47">
         <v>44287</v>
       </c>
-      <c r="G4" s="70">
+      <c r="G4" s="47">
         <v>44288</v>
       </c>
-      <c r="H4" s="70">
+      <c r="H4" s="47">
         <v>44289</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71" t="s">
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="81" t="s">
+      <c r="H5" s="56" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="72">
+      <c r="B6" s="49">
         <f t="array" ref="B6:H6">DiasESemanas+DATE(AnoCalendário,4,1)-WEEKDAY(DATE(AnoCalendário,4,1),(InícioDaSemana="segunda-feira")+1)+8</f>
         <v>44290</v>
       </c>
-      <c r="C6" s="72">
+      <c r="C6" s="49">
         <v>44291</v>
       </c>
-      <c r="D6" s="72">
+      <c r="D6" s="49">
         <v>44292</v>
       </c>
-      <c r="E6" s="72">
+      <c r="E6" s="49">
         <v>44293</v>
       </c>
-      <c r="F6" s="72">
+      <c r="F6" s="49">
         <v>44294</v>
       </c>
-      <c r="G6" s="72">
+      <c r="G6" s="49">
         <v>44295</v>
       </c>
-      <c r="H6" s="72">
+      <c r="H6" s="49">
         <v>44296</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="71" t="s">
+      <c r="B7" s="50"/>
+      <c r="C7" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="71" t="s">
+      <c r="F7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="71" t="s">
+      <c r="G7" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="71" t="s">
+      <c r="H7" s="48" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="74">
+      <c r="B8" s="51">
         <f t="array" ref="B8:H8">DiasESemanas+DATE(AnoCalendário,4,1)-WEEKDAY(DATE(AnoCalendário,4,1),(InícioDaSemana="segunda-feira")+1)+15</f>
         <v>44297</v>
       </c>
-      <c r="C8" s="74">
+      <c r="C8" s="51">
         <v>44298</v>
       </c>
-      <c r="D8" s="74">
+      <c r="D8" s="51">
         <v>44299</v>
       </c>
-      <c r="E8" s="74">
+      <c r="E8" s="51">
         <v>44300</v>
       </c>
-      <c r="F8" s="74">
+      <c r="F8" s="51">
         <v>44301</v>
       </c>
-      <c r="G8" s="74">
+      <c r="G8" s="51">
         <v>44302</v>
       </c>
-      <c r="H8" s="74">
+      <c r="H8" s="51">
         <v>44303</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="71" t="s">
+      <c r="G9" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="71" t="s">
+      <c r="H9" s="48" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" s="72">
+      <c r="B10" s="49">
         <f t="array" ref="B10:H10">DiasESemanas+DATE(AnoCalendário,4,1)-WEEKDAY(DATE(AnoCalendário,4,1),(InícioDaSemana="segunda-feira")+1)+22</f>
         <v>44304</v>
       </c>
-      <c r="C10" s="72">
+      <c r="C10" s="49">
         <v>44305</v>
       </c>
-      <c r="D10" s="72">
+      <c r="D10" s="49">
         <v>44306</v>
       </c>
-      <c r="E10" s="72">
+      <c r="E10" s="49">
         <v>44307</v>
       </c>
-      <c r="F10" s="72">
+      <c r="F10" s="49">
         <v>44308</v>
       </c>
-      <c r="G10" s="72">
+      <c r="G10" s="49">
         <v>44309</v>
       </c>
-      <c r="H10" s="72">
+      <c r="H10" s="49">
         <v>44310</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="80" t="s">
+      <c r="C11" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
-      <c r="B12" s="74">
+      <c r="B12" s="51">
         <f t="array" ref="B12:H12">DiasESemanas+DATE(AnoCalendário,4,1)-WEEKDAY(DATE(AnoCalendário,4,1),(InícioDaSemana="segunda-feira")+1)+29</f>
         <v>44311</v>
       </c>
-      <c r="C12" s="74">
+      <c r="C12" s="51">
         <v>44312</v>
       </c>
-      <c r="D12" s="74">
+      <c r="D12" s="51">
         <v>44313</v>
       </c>
-      <c r="E12" s="74">
+      <c r="E12" s="51">
         <v>44314</v>
       </c>
-      <c r="F12" s="74">
+      <c r="F12" s="51">
         <v>44315</v>
       </c>
-      <c r="G12" s="74">
+      <c r="G12" s="51">
         <v>44316</v>
       </c>
-      <c r="H12" s="74">
+      <c r="H12" s="51">
         <v>44317</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
     </row>
     <row r="14" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" s="72">
+      <c r="B14" s="49">
         <f t="array" ref="B14:C14">DiasESemanas+DATE(AnoCalendário,4,1)-WEEKDAY(DATE(AnoCalendário,4,1),(InícioDaSemana="segunda-feira")+1)+36</f>
         <v>44318</v>
       </c>
-      <c r="C14" s="72">
+      <c r="C14" s="49">
         <v>44319</v>
       </c>
-      <c r="D14" s="75" t="s">
+      <c r="D14" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
     </row>
     <row r="15" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="76" t="s">
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4654,12 +4654,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="52" t="str">
+      <c r="B2" s="67" t="str">
         <f>"Maio "&amp;AnoCalendário</f>
         <v>Maio 2021</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -4880,23 +4880,23 @@
       <c r="C14" s="44">
         <v>44347</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="54"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="69"/>
     </row>
     <row r="15" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="56"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4957,12 +4957,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="57" t="str">
+      <c r="B2" s="72" t="str">
         <f>"Junho "&amp;AnoCalendário</f>
         <v>Junho 2021</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -5183,23 +5183,23 @@
       <c r="C14" s="41">
         <v>44382</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="59"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
     </row>
     <row r="15" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="61"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5260,12 +5260,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="57" t="str">
+      <c r="B2" s="72" t="str">
         <f>"Julho "&amp;AnoCalendário</f>
         <v>Julho 2021</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -5486,23 +5486,23 @@
       <c r="C14" s="41">
         <v>44410</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="59"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
     </row>
     <row r="15" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="61"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5563,12 +5563,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="57" t="str">
+      <c r="B2" s="72" t="str">
         <f>"Agosto "&amp;AnoCalendário</f>
         <v>Agosto 2021</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -5789,23 +5789,23 @@
       <c r="C14" s="41">
         <v>44445</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="59"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
     </row>
     <row r="15" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="61"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5866,12 +5866,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="62" t="str">
+      <c r="B2" s="77" t="str">
         <f>"Setembro "&amp;AnoCalendário</f>
         <v>Setembro 2021</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -6092,23 +6092,23 @@
       <c r="C14" s="38">
         <v>44473</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="64"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="79"/>
     </row>
     <row r="15" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="66"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6145,12 +6145,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6375,18 +6375,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6411,11 +6413,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentação/em-andamento/calendario-planejamento-sprint.xlsx
+++ b/Documentação/em-andamento/calendario-planejamento-sprint.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09F1437-A2BC-4CEC-BAC3-7DFD51147551}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0DD85E-EAA9-4E90-A25C-F9CC8DE9DB89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="788" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="788" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Janeiro" sheetId="14" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="38">
   <si>
     <t>Anotações</t>
   </si>
@@ -148,6 +148,54 @@
   <si>
     <t>Programação do site insituicional (BackEnd)</t>
   </si>
+  <si>
+    <t>Orientações sobre a Sprint3 + introdução de projeto pessoal</t>
+  </si>
+  <si>
+    <t>Fazer ajustes no projeto, vizualiar melhorias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segunda e Quinta (15:45 até 17:00) e (19:00 até 22:00 projeto pessoal) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RE - Discutir Documentação, visualizar requisitos </t>
+  </si>
+  <si>
+    <t>RE - Discutindo sobre implementações das matérias</t>
+  </si>
+  <si>
+    <t>RE - Discussão sobre o dicionário de dados</t>
+  </si>
+  <si>
+    <t>RE - Entrega dos dicionários de dados.</t>
+  </si>
+  <si>
+    <t>RE - Discutindo sobre a finalização do projeto, últimos ajustes</t>
+  </si>
+  <si>
+    <t>RE - Treinando a apresentação e contruindo power point</t>
+  </si>
+  <si>
+    <t>RE - Implementando o banco de dados no Azure</t>
+  </si>
+  <si>
+    <t>Mapeamento das tabelas</t>
+  </si>
+  <si>
+    <t>Teste integrado do analytics</t>
+  </si>
+  <si>
+    <t>Teste do IOT (Simulador + BD)</t>
+  </si>
+  <si>
+    <t>RE - Criando fluxograma do processo de atendimento + Help desk</t>
+  </si>
+  <si>
+    <t>RE - Criando o manual de instalação + Doc final</t>
+  </si>
+  <si>
+    <t>Prévia (demonstraç]ao da solução + apresentação)</t>
+  </si>
 </sst>
 </file>
 
@@ -160,7 +208,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="d"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -290,14 +338,6 @@
       <b/>
       <sz val="36"/>
       <color theme="8" tint="-0.499984740745262"/>
-      <name val="Century Gothic"/>
-      <family val="1"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="36"/>
-      <color theme="9" tint="-0.499984740745262"/>
       <name val="Century Gothic"/>
       <family val="1"/>
       <scheme val="major"/>
@@ -461,7 +501,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,12 +539,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -696,7 +730,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -849,72 +883,6 @@
       <right/>
       <top style="thin">
         <color theme="8" tint="0.59996337778862885"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="9" tint="0.59996337778862885"/>
-      </left>
-      <right style="thin">
-        <color theme="9" tint="0.59996337778862885"/>
-      </right>
-      <top style="thin">
-        <color theme="9" tint="0.59996337778862885"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="9" tint="0.59996337778862885"/>
-      </left>
-      <right style="thin">
-        <color theme="9" tint="0.59996337778862885"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="9" tint="0.59996337778862885"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="9" tint="0.59996337778862885"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="9" tint="0.59996337778862885"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="9" tint="0.59996337778862885"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="9" tint="0.59996337778862885"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="9" tint="0.59996337778862885"/>
-      </right>
-      <top style="thin">
-        <color theme="9" tint="0.59996337778862885"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1181,41 +1149,41 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -1294,27 +1262,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="166" fontId="15" fillId="0" borderId="9" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1327,15 +1280,6 @@
     <xf numFmtId="166" fontId="15" fillId="0" borderId="9" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="26" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="26" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="26" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="166" fontId="15" fillId="0" borderId="20" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1354,38 +1298,41 @@
     <xf numFmtId="166" fontId="15" fillId="0" borderId="14" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="40" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="33" fillId="40" borderId="38" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="32" fillId="39" borderId="32" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="40" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="33" fillId="40" borderId="38" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="32" fillId="39" borderId="32" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="40" borderId="38" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="32" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="33" fillId="40" borderId="38" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="32" fillId="39" borderId="32" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="40" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="38" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="40" borderId="38" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="39" borderId="32" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="40" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="39" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1405,36 +1352,36 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="39" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="37" fillId="38" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="40" borderId="38" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="39" borderId="32" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="40" borderId="38" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="32" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1445,21 +1392,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1706,10 +1638,10 @@
       <rgbColor rgb="004B4B4B"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FF990000"/>
+      <color rgb="FF800000"/>
+      <color rgb="FF2E0000"/>
       <color rgb="FFE60000"/>
-      <color rgb="FF2E0000"/>
-      <color rgb="FF800000"/>
-      <color rgb="FF990000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1744,54 +1676,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3924300" y="117980"/>
-          <a:ext cx="5067300" cy="1135639"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>3680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1139319</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2" descr="Cabeçalho de Inverno &#10;&#10;Colagem de fotos de palavra: Inverno">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1872,22 +1756,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>572147</xdr:colOff>
+      <xdr:colOff>244168</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1266178</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3481</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1143000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3" descr="Cabeçalho de Primavera&#10;&#10;Colagem de fotos de palavra: Primavera">
+        <xdr:cNvPr id="3" name="Imagem 2" descr="Cabeçalho de Verão&#10;&#10;Colagem de fotos de palavra: Verão">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1902,8 +1786,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4496447" y="114300"/>
-          <a:ext cx="4494506" cy="1143000"/>
+          <a:off x="4168468" y="114300"/>
+          <a:ext cx="4826613" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1932,10 +1816,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2" descr="Cabeçalho de Verão&#10;&#10;Colagem de fotos de palavra: Verão">
+        <xdr:cNvPr id="4" name="Imagem 3" descr="Cabeçalho de Verão&#10;&#10;Colagem de fotos de palavra: Verão">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1983,7 +1867,7 @@
         <xdr:cNvPr id="4" name="Imagem 3" descr="Cabeçalho de Verão&#10;&#10;Colagem de fotos de palavra: Verão">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2012,54 +1896,6 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>244168</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>3481</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1143000</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3" descr="Cabeçalho de Verão&#10;&#10;Colagem de fotos de palavra: Verão">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4168468" y="114300"/>
-          <a:ext cx="4826613" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2107,7 +1943,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2155,7 +1991,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2192,6 +2028,54 @@
         <a:xfrm>
           <a:off x="4257675" y="108320"/>
           <a:ext cx="4730400" cy="1144800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1139319</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2" descr="Cabeçalho de Inverno &#10;&#10;Colagem de fotos de palavra: Inverno">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3924300" y="117980"/>
+          <a:ext cx="5067300" cy="1135639"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2431,12 +2315,12 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="57" t="str">
+      <c r="B2" s="50" t="str">
         <f>"Janeiro "&amp;AnoCalendário</f>
         <v>Janeiro 2021</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -2472,33 +2356,33 @@
         <f t="shared" si="0"/>
         <v>sábado</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="62"/>
+      <c r="L3" s="55"/>
     </row>
     <row r="4" spans="1:12" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="33">
+      <c r="B4" s="28">
         <f t="array" ref="B4:H4">DiasESemanas+DATE(AnoCalendário,1,1)-WEEKDAY(DATE(AnoCalendário,1,1),(InícioDaSemana="segunda-feira")+1)+1</f>
         <v>44192</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="28">
         <v>44193</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="28">
         <v>44194</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="28">
         <v>44195</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="28">
         <v>44196</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="28">
         <v>44197</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="29">
         <v>44198</v>
       </c>
       <c r="K4" s="16" t="s">
@@ -2526,26 +2410,26 @@
     </row>
     <row r="6" spans="1:12" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="35">
+      <c r="B6" s="30">
         <f t="array" ref="B6:H6">DiasESemanas+DATE(AnoCalendário,1,1)-WEEKDAY(DATE(AnoCalendário,1,1),(InícioDaSemana="segunda-feira")+1)+8</f>
         <v>44199</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="30">
         <v>44200</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="30">
         <v>44201</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="30">
         <v>44202</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="30">
         <v>44203</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="30">
         <v>44204</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="30">
         <v>44205</v>
       </c>
     </row>
@@ -2561,26 +2445,26 @@
     </row>
     <row r="8" spans="1:12" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="36">
+      <c r="B8" s="31">
         <f t="array" ref="B8:H8">DiasESemanas+DATE(AnoCalendário,1,1)-WEEKDAY(DATE(AnoCalendário,1,1),(InícioDaSemana="segunda-feira")+1)+15</f>
         <v>44206</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="31">
         <v>44207</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="31">
         <v>44208</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="31">
         <v>44209</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="31">
         <v>44210</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="31">
         <v>44211</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="31">
         <v>44212</v>
       </c>
     </row>
@@ -2596,26 +2480,26 @@
     </row>
     <row r="10" spans="1:12" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" s="35">
+      <c r="B10" s="30">
         <f t="array" ref="B10:H10">DiasESemanas+DATE(AnoCalendário,1,1)-WEEKDAY(DATE(AnoCalendário,1,1),(InícioDaSemana="segunda-feira")+1)+22</f>
         <v>44213</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="30">
         <v>44214</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="30">
         <v>44215</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="30">
         <v>44216</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="30">
         <v>44217</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="30">
         <v>44218</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="30">
         <v>44219</v>
       </c>
     </row>
@@ -2631,26 +2515,26 @@
     </row>
     <row r="12" spans="1:12" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
-      <c r="B12" s="36">
+      <c r="B12" s="31">
         <f t="array" ref="B12:H12">DiasESemanas+DATE(AnoCalendário,1,1)-WEEKDAY(DATE(AnoCalendário,1,1),(InícioDaSemana="segunda-feira")+1)+29</f>
         <v>44220</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="31">
         <v>44221</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="31">
         <v>44222</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="31">
         <v>44223</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="31">
         <v>44224</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="31">
         <v>44225</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="31">
         <v>44226</v>
       </c>
     </row>
@@ -2666,30 +2550,30 @@
     </row>
     <row r="14" spans="1:12" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" s="35">
+      <c r="B14" s="30">
         <f t="array" ref="B14:C14">DiasESemanas+DATE(AnoCalendário,1,1)-WEEKDAY(DATE(AnoCalendário,1,1),(InícioDaSemana="segunda-feira")+1)+36</f>
         <v>44227</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="30">
         <v>44228</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="59"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="52"/>
     </row>
     <row r="15" spans="1:12" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="61"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2764,12 +2648,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="77" t="str">
+      <c r="B2" s="65" t="str">
         <f>"Outubro "&amp;AnoCalendário</f>
         <v>Outubro 2021</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -2808,205 +2692,205 @@
     </row>
     <row r="4" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="37">
+      <c r="B4" s="32">
         <f t="array" ref="B4:H4">DiasESemanas+DATE(AnoCalendário,10,1)-WEEKDAY(DATE(AnoCalendário,10,1),(InícioDaSemana="segunda-feira")+1)+1</f>
         <v>44465</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="32">
         <v>44466</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="32">
         <v>44467</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="32">
         <v>44468</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="32">
         <v>44469</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="32">
         <v>44470</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="32">
         <v>44471</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="38">
+      <c r="B6" s="33">
         <f t="array" ref="B6:H6">DiasESemanas+DATE(AnoCalendário,10,1)-WEEKDAY(DATE(AnoCalendário,10,1),(InícioDaSemana="segunda-feira")+1)+8</f>
         <v>44472</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="33">
         <v>44473</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="33">
         <v>44474</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="33">
         <v>44475</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="33">
         <v>44476</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="33">
         <v>44477</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="33">
         <v>44478</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="39">
+      <c r="B8" s="34">
         <f t="array" ref="B8:H8">DiasESemanas+DATE(AnoCalendário,10,1)-WEEKDAY(DATE(AnoCalendário,10,1),(InícioDaSemana="segunda-feira")+1)+15</f>
         <v>44479</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="34">
         <v>44480</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="34">
         <v>44481</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="34">
         <v>44482</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="34">
         <v>44483</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="34">
         <v>44484</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="34">
         <v>44485</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" s="38">
+      <c r="B10" s="33">
         <f t="array" ref="B10:H10">DiasESemanas+DATE(AnoCalendário,10,1)-WEEKDAY(DATE(AnoCalendário,10,1),(InícioDaSemana="segunda-feira")+1)+22</f>
         <v>44486</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="33">
         <v>44487</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="33">
         <v>44488</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="33">
         <v>44489</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="33">
         <v>44490</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="33">
         <v>44491</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="33">
         <v>44492</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
-      <c r="B12" s="39">
+      <c r="B12" s="34">
         <f t="array" ref="B12:H12">DiasESemanas+DATE(AnoCalendário,10,1)-WEEKDAY(DATE(AnoCalendário,10,1),(InícioDaSemana="segunda-feira")+1)+29</f>
         <v>44493</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="34">
         <v>44494</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="34">
         <v>44495</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="34">
         <v>44496</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="34">
         <v>44497</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="34">
         <v>44498</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="34">
         <v>44499</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" s="38">
+      <c r="B14" s="33">
         <f t="array" ref="B14:C14">DiasESemanas+DATE(AnoCalendário,10,1)-WEEKDAY(DATE(AnoCalendário,10,1),(InícioDaSemana="segunda-feira")+1)+36</f>
         <v>44500</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="33">
         <v>44501</v>
       </c>
-      <c r="D14" s="78" t="s">
+      <c r="D14" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="79"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="67"/>
     </row>
     <row r="15" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="81"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3067,12 +2951,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="77" t="str">
+      <c r="B2" s="65" t="str">
         <f>"Novembro "&amp;AnoCalendário</f>
         <v>Novembro 2021</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -3111,205 +2995,205 @@
     </row>
     <row r="4" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="37">
+      <c r="B4" s="32">
         <f t="array" ref="B4:H4">DiasESemanas+DATE(AnoCalendário,11,1)-WEEKDAY(DATE(AnoCalendário,11,1),(InícioDaSemana="segunda-feira")+1)+1</f>
         <v>44500</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="32">
         <v>44501</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="32">
         <v>44502</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="32">
         <v>44503</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="32">
         <v>44504</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="32">
         <v>44505</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="32">
         <v>44506</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="38">
+      <c r="B6" s="33">
         <f t="array" ref="B6:H6">DiasESemanas+DATE(AnoCalendário,11,1)-WEEKDAY(DATE(AnoCalendário,11,1),(InícioDaSemana="segunda-feira")+1)+8</f>
         <v>44507</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="33">
         <v>44508</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="33">
         <v>44509</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="33">
         <v>44510</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="33">
         <v>44511</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="33">
         <v>44512</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="33">
         <v>44513</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="39">
+      <c r="B8" s="34">
         <f t="array" ref="B8:H8">DiasESemanas+DATE(AnoCalendário,11,1)-WEEKDAY(DATE(AnoCalendário,11,1),(InícioDaSemana="segunda-feira")+1)+15</f>
         <v>44514</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="34">
         <v>44515</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="34">
         <v>44516</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="34">
         <v>44517</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="34">
         <v>44518</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="34">
         <v>44519</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="34">
         <v>44520</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" s="38">
+      <c r="B10" s="33">
         <f t="array" ref="B10:H10">DiasESemanas+DATE(AnoCalendário,11,1)-WEEKDAY(DATE(AnoCalendário,11,1),(InícioDaSemana="segunda-feira")+1)+22</f>
         <v>44521</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="33">
         <v>44522</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="33">
         <v>44523</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="33">
         <v>44524</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="33">
         <v>44525</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="33">
         <v>44526</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="33">
         <v>44527</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
-      <c r="B12" s="39">
+      <c r="B12" s="34">
         <f t="array" ref="B12:H12">DiasESemanas+DATE(AnoCalendário,11,1)-WEEKDAY(DATE(AnoCalendário,11,1),(InícioDaSemana="segunda-feira")+1)+29</f>
         <v>44528</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="34">
         <v>44529</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="34">
         <v>44530</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="34">
         <v>44531</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="34">
         <v>44532</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="34">
         <v>44533</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="34">
         <v>44534</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" s="38">
+      <c r="B14" s="33">
         <f t="array" ref="B14:C14">DiasESemanas+DATE(AnoCalendário,11,1)-WEEKDAY(DATE(AnoCalendário,11,1),(InícioDaSemana="segunda-feira")+1)+36</f>
         <v>44535</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="33">
         <v>44536</v>
       </c>
-      <c r="D14" s="78" t="s">
+      <c r="D14" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="79"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="67"/>
     </row>
     <row r="15" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="81"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3370,12 +3254,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="57" t="str">
+      <c r="B2" s="50" t="str">
         <f>"Dezembro "&amp;AnoCalendário</f>
         <v>Dezembro 2021</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -3414,26 +3298,26 @@
     </row>
     <row r="4" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="33">
+      <c r="B4" s="28">
         <f t="array" ref="B4:H4">DiasESemanas+DATE(AnoCalendário,12,1)-WEEKDAY(DATE(AnoCalendário,12,1),(InícioDaSemana="segunda-feira")+1)+1</f>
         <v>44528</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="28">
         <v>44529</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="28">
         <v>44530</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="28">
         <v>44531</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="28">
         <v>44532</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="28">
         <v>44533</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="29">
         <v>44534</v>
       </c>
     </row>
@@ -3449,26 +3333,26 @@
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="35">
+      <c r="B6" s="30">
         <f t="array" ref="B6:H6">DiasESemanas+DATE(AnoCalendário,12,1)-WEEKDAY(DATE(AnoCalendário,12,1),(InícioDaSemana="segunda-feira")+1)+8</f>
         <v>44535</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="30">
         <v>44536</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="30">
         <v>44537</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="30">
         <v>44538</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="30">
         <v>44539</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="30">
         <v>44540</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="30">
         <v>44541</v>
       </c>
     </row>
@@ -3484,26 +3368,26 @@
     </row>
     <row r="8" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="36">
+      <c r="B8" s="31">
         <f t="array" ref="B8:H8">DiasESemanas+DATE(AnoCalendário,12,1)-WEEKDAY(DATE(AnoCalendário,12,1),(InícioDaSemana="segunda-feira")+1)+15</f>
         <v>44542</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="31">
         <v>44543</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="31">
         <v>44544</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="31">
         <v>44545</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="31">
         <v>44546</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="31">
         <v>44547</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="31">
         <v>44548</v>
       </c>
     </row>
@@ -3519,26 +3403,26 @@
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" s="35">
+      <c r="B10" s="30">
         <f t="array" ref="B10:H10">DiasESemanas+DATE(AnoCalendário,12,1)-WEEKDAY(DATE(AnoCalendário,12,1),(InícioDaSemana="segunda-feira")+1)+22</f>
         <v>44549</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="30">
         <v>44550</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="30">
         <v>44551</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="30">
         <v>44552</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="30">
         <v>44553</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="30">
         <v>44554</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="30">
         <v>44555</v>
       </c>
     </row>
@@ -3554,26 +3438,26 @@
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
-      <c r="B12" s="36">
+      <c r="B12" s="31">
         <f t="array" ref="B12:H12">DiasESemanas+DATE(AnoCalendário,12,1)-WEEKDAY(DATE(AnoCalendário,12,1),(InícioDaSemana="segunda-feira")+1)+29</f>
         <v>44556</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="31">
         <v>44557</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="31">
         <v>44558</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="31">
         <v>44559</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="31">
         <v>44560</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="31">
         <v>44561</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="31">
         <v>44562</v>
       </c>
     </row>
@@ -3589,30 +3473,30 @@
     </row>
     <row r="14" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" s="35">
+      <c r="B14" s="30">
         <f t="array" ref="B14:C14">DiasESemanas+DATE(AnoCalendário,12,1)-WEEKDAY(DATE(AnoCalendário,12,1),(InícioDaSemana="segunda-feira")+1)+36</f>
         <v>44563</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="30">
         <v>44564</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="59"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="52"/>
     </row>
     <row r="15" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="61"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3673,12 +3557,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="57" t="str">
+      <c r="B2" s="50" t="str">
         <f>"Fevereiro "&amp;AnoCalendário</f>
         <v>Fevereiro 2021</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -3717,26 +3601,26 @@
     </row>
     <row r="4" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="33">
+      <c r="B4" s="28">
         <f t="array" ref="B4:H4">DiasESemanas+DATE(AnoCalendário,2,1)-WEEKDAY(DATE(AnoCalendário,2,1),(InícioDaSemana="segunda-feira")+1)+1</f>
         <v>44227</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="28">
         <v>44228</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="28">
         <v>44229</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="28">
         <v>44230</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="28">
         <v>44231</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="28">
         <v>44232</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="29">
         <v>44233</v>
       </c>
     </row>
@@ -3752,26 +3636,26 @@
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="35">
+      <c r="B6" s="30">
         <f t="array" ref="B6:H6">DiasESemanas+DATE(AnoCalendário,2,1)-WEEKDAY(DATE(AnoCalendário,2,1),(InícioDaSemana="segunda-feira")+1)+8</f>
         <v>44234</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="30">
         <v>44235</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="30">
         <v>44236</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="30">
         <v>44237</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="30">
         <v>44238</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="30">
         <v>44239</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="30">
         <v>44240</v>
       </c>
     </row>
@@ -3787,26 +3671,26 @@
     </row>
     <row r="8" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="36">
+      <c r="B8" s="31">
         <f t="array" ref="B8:H8">DiasESemanas+DATE(AnoCalendário,2,1)-WEEKDAY(DATE(AnoCalendário,2,1),(InícioDaSemana="segunda-feira")+1)+15</f>
         <v>44241</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="31">
         <v>44242</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="31">
         <v>44243</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="31">
         <v>44244</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="31">
         <v>44245</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="31">
         <v>44246</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="31">
         <v>44247</v>
       </c>
     </row>
@@ -3822,26 +3706,26 @@
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" s="35">
+      <c r="B10" s="30">
         <f t="array" ref="B10:H10">DiasESemanas+DATE(AnoCalendário,2,1)-WEEKDAY(DATE(AnoCalendário,2,1),(InícioDaSemana="segunda-feira")+1)+22</f>
         <v>44248</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="30">
         <v>44249</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="30">
         <v>44250</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="30">
         <v>44251</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="30">
         <v>44252</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="30">
         <v>44253</v>
       </c>
-      <c r="H10" s="35">
+      <c r="H10" s="30">
         <v>44254</v>
       </c>
     </row>
@@ -3857,26 +3741,26 @@
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
-      <c r="B12" s="36">
+      <c r="B12" s="31">
         <f t="array" ref="B12:H12">DiasESemanas+DATE(AnoCalendário,2,1)-WEEKDAY(DATE(AnoCalendário,2,1),(InícioDaSemana="segunda-feira")+1)+29</f>
         <v>44255</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="31">
         <v>44256</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="31">
         <v>44257</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="31">
         <v>44258</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="31">
         <v>44259</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="31">
         <v>44260</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="31">
         <v>44261</v>
       </c>
     </row>
@@ -3892,30 +3776,30 @@
     </row>
     <row r="14" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" s="35">
+      <c r="B14" s="30">
         <f t="array" ref="B14:C14">DiasESemanas+DATE(AnoCalendário,2,1)-WEEKDAY(DATE(AnoCalendário,2,1),(InícioDaSemana="segunda-feira")+1)+36</f>
         <v>44262</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="30">
         <v>44263</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="59"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="52"/>
     </row>
     <row r="15" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="61"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3959,7 +3843,7 @@
   </sheetPr>
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -3979,12 +3863,12 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="63" t="str">
+      <c r="B2" s="56" t="str">
         <f>"Março "&amp;AnoCalendário</f>
         <v>Março 2021</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -3992,269 +3876,269 @@
     </row>
     <row r="3" spans="1:11" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="38" t="str">
         <f>InícioDaSemana</f>
         <v>domingo</v>
       </c>
-      <c r="C3" s="54" t="str">
+      <c r="C3" s="46" t="str">
         <f t="shared" ref="C3:H3" si="0">TEXT(C4,"dddd")</f>
         <v>segunda-feira</v>
       </c>
-      <c r="D3" s="54" t="str">
+      <c r="D3" s="46" t="str">
         <f t="shared" si="0"/>
         <v>terça-feira</v>
       </c>
-      <c r="E3" s="54" t="str">
+      <c r="E3" s="46" t="str">
         <f t="shared" si="0"/>
         <v>quarta-feira</v>
       </c>
-      <c r="F3" s="54" t="str">
+      <c r="F3" s="46" t="str">
         <f t="shared" si="0"/>
         <v>quinta-feira</v>
       </c>
-      <c r="G3" s="54" t="str">
+      <c r="G3" s="46" t="str">
         <f t="shared" si="0"/>
         <v>sexta-feira</v>
       </c>
-      <c r="H3" s="46" t="str">
+      <c r="H3" s="38" t="str">
         <f t="shared" si="0"/>
         <v>sábado</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="47">
+      <c r="B4" s="39">
         <f t="array" ref="B4:H4">DiasESemanas+DATE(AnoCalendário,3,1)-WEEKDAY(DATE(AnoCalendário,3,1),(InícioDaSemana="segunda-feira")+1)+1</f>
         <v>44255</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="39">
         <v>44256</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="39">
         <v>44257</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="39">
         <v>44258</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="39">
         <v>44259</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="39">
         <v>44260</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4" s="39">
         <v>44261</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:11" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="49">
+      <c r="B6" s="41">
         <f t="array" ref="B6:H6">DiasESemanas+DATE(AnoCalendário,3,1)-WEEKDAY(DATE(AnoCalendário,3,1),(InícioDaSemana="segunda-feira")+1)+8</f>
         <v>44262</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="41">
         <v>44263</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="41">
         <v>44264</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="41">
         <v>44265</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="41">
         <v>44266</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="41">
         <v>44267</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="41">
         <v>44268</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="44"/>
     </row>
     <row r="7" spans="1:11" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="51">
+      <c r="B8" s="43">
         <f t="array" ref="B8:H8">DiasESemanas+DATE(AnoCalendário,3,1)-WEEKDAY(DATE(AnoCalendário,3,1),(InícioDaSemana="segunda-feira")+1)+15</f>
         <v>44269</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="43">
         <v>44270</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="43">
         <v>44271</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="43">
         <v>44272</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="43">
         <v>44273</v>
       </c>
-      <c r="G8" s="51">
+      <c r="G8" s="43">
         <v>44274</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="43">
         <v>44275</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="56" t="s">
+      <c r="H9" s="48" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" s="49">
+      <c r="B10" s="41">
         <f t="array" ref="B10:H10">DiasESemanas+DATE(AnoCalendário,3,1)-WEEKDAY(DATE(AnoCalendário,3,1),(InícioDaSemana="segunda-feira")+1)+22</f>
         <v>44276</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="41">
         <v>44277</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="41">
         <v>44278</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="41">
         <v>44279</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="41">
         <v>44280</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="41">
         <v>44281</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="41">
         <v>44282</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="42"/>
+      <c r="C11" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="48" t="s">
+      <c r="E11" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="56" t="s">
+      <c r="H11" s="48" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
-      <c r="B12" s="51">
+      <c r="B12" s="43">
         <f t="array" ref="B12:H12">DiasESemanas+DATE(AnoCalendário,3,1)-WEEKDAY(DATE(AnoCalendário,3,1),(InícioDaSemana="segunda-feira")+1)+29</f>
         <v>44283</v>
       </c>
-      <c r="C12" s="51">
+      <c r="C12" s="43">
         <v>44284</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="43">
         <v>44285</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="43">
         <v>44286</v>
       </c>
-      <c r="F12" s="51">
+      <c r="F12" s="43">
         <v>44287</v>
       </c>
-      <c r="G12" s="51">
+      <c r="G12" s="43">
         <v>44288</v>
       </c>
-      <c r="H12" s="51">
+      <c r="H12" s="43">
         <v>44289</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
     </row>
     <row r="14" spans="1:11" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" s="49">
+      <c r="B14" s="41">
         <f t="array" ref="B14:C14">DiasESemanas+DATE(AnoCalendário,3,1)-WEEKDAY(DATE(AnoCalendário,3,1),(InícioDaSemana="segunda-feira")+1)+36</f>
         <v>44290</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="41">
         <v>44291</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
     </row>
     <row r="15" spans="1:11" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="65" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4297,8 +4181,8 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4316,12 +4200,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="str">
+      <c r="B2" s="59" t="str">
         <f>"Abril "&amp;AnoCalendário</f>
         <v>Abril 2021</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -4329,272 +4213,282 @@
     </row>
     <row r="3" spans="1:9" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="38" t="str">
         <f>InícioDaSemana</f>
         <v>domingo</v>
       </c>
-      <c r="C3" s="54" t="str">
+      <c r="C3" s="46" t="str">
         <f t="shared" ref="C3:H3" si="0">TEXT(C4,"dddd")</f>
         <v>segunda-feira</v>
       </c>
-      <c r="D3" s="54" t="str">
+      <c r="D3" s="46" t="str">
         <f t="shared" si="0"/>
         <v>terça-feira</v>
       </c>
-      <c r="E3" s="54" t="str">
+      <c r="E3" s="46" t="str">
         <f t="shared" si="0"/>
         <v>quarta-feira</v>
       </c>
-      <c r="F3" s="54" t="str">
+      <c r="F3" s="46" t="str">
         <f t="shared" si="0"/>
         <v>quinta-feira</v>
       </c>
-      <c r="G3" s="54" t="str">
+      <c r="G3" s="46" t="str">
         <f t="shared" si="0"/>
         <v>sexta-feira</v>
       </c>
-      <c r="H3" s="46" t="str">
+      <c r="H3" s="38" t="str">
         <f t="shared" si="0"/>
         <v>sábado</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="47">
+      <c r="B4" s="39">
         <f t="array" ref="B4:H4">DiasESemanas+DATE(AnoCalendário,4,1)-WEEKDAY(DATE(AnoCalendário,4,1),(InícioDaSemana="segunda-feira")+1)+1</f>
         <v>44283</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="39">
         <v>44284</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="39">
         <v>44285</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="39">
         <v>44286</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="39">
         <v>44287</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="39">
         <v>44288</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4" s="39">
         <v>44289</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="56" t="s">
+      <c r="H5" s="48" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="49">
+      <c r="B6" s="41">
         <f t="array" ref="B6:H6">DiasESemanas+DATE(AnoCalendário,4,1)-WEEKDAY(DATE(AnoCalendário,4,1),(InícioDaSemana="segunda-feira")+1)+8</f>
         <v>44290</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="41">
         <v>44291</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="41">
         <v>44292</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="41">
         <v>44293</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="41">
         <v>44294</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="41">
         <v>44295</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="41">
         <v>44296</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="48" t="s">
+      <c r="B7" s="42"/>
+      <c r="C7" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="48" t="s">
+      <c r="E7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="48" t="s">
+      <c r="F7" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="40" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="51">
+      <c r="B8" s="43">
         <f t="array" ref="B8:H8">DiasESemanas+DATE(AnoCalendário,4,1)-WEEKDAY(DATE(AnoCalendário,4,1),(InícioDaSemana="segunda-feira")+1)+15</f>
         <v>44297</v>
       </c>
-      <c r="C8" s="51">
+      <c r="C8" s="43">
         <v>44298</v>
       </c>
-      <c r="D8" s="51">
+      <c r="D8" s="43">
         <v>44299</v>
       </c>
-      <c r="E8" s="51">
+      <c r="E8" s="43">
         <v>44300</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="43">
         <v>44301</v>
       </c>
-      <c r="G8" s="51">
+      <c r="G8" s="43">
         <v>44302</v>
       </c>
-      <c r="H8" s="51">
+      <c r="H8" s="43">
         <v>44303</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="48" t="s">
+      <c r="F9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="48" t="s">
+      <c r="G9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="H9" s="40" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" s="49">
+      <c r="B10" s="41">
         <f t="array" ref="B10:H10">DiasESemanas+DATE(AnoCalendário,4,1)-WEEKDAY(DATE(AnoCalendário,4,1),(InícioDaSemana="segunda-feira")+1)+22</f>
         <v>44304</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="41">
         <v>44305</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="41">
         <v>44306</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="41">
         <v>44307</v>
       </c>
-      <c r="F10" s="49">
+      <c r="F10" s="41">
         <v>44308</v>
       </c>
-      <c r="G10" s="49">
+      <c r="G10" s="41">
         <v>44309</v>
       </c>
-      <c r="H10" s="49">
+      <c r="H10" s="41">
         <v>44310</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
-      <c r="B12" s="51">
+      <c r="B12" s="43">
         <f t="array" ref="B12:H12">DiasESemanas+DATE(AnoCalendário,4,1)-WEEKDAY(DATE(AnoCalendário,4,1),(InícioDaSemana="segunda-feira")+1)+29</f>
         <v>44311</v>
       </c>
-      <c r="C12" s="51">
+      <c r="C12" s="43">
         <v>44312</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="43">
         <v>44313</v>
       </c>
-      <c r="E12" s="51">
+      <c r="E12" s="43">
         <v>44314</v>
       </c>
-      <c r="F12" s="51">
+      <c r="F12" s="43">
         <v>44315</v>
       </c>
-      <c r="G12" s="51">
+      <c r="G12" s="43">
         <v>44316</v>
       </c>
-      <c r="H12" s="51">
+      <c r="H12" s="43">
         <v>44317</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="40"/>
     </row>
     <row r="14" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" s="49">
+      <c r="B14" s="41">
         <f t="array" ref="B14:C14">DiasESemanas+DATE(AnoCalendário,4,1)-WEEKDAY(DATE(AnoCalendário,4,1),(InícioDaSemana="segunda-feira")+1)+36</f>
         <v>44318</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="41">
         <v>44319</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
     </row>
     <row r="15" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4635,9 +4529,11 @@
     <tabColor theme="9" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4654,12 +4550,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="67" t="str">
+      <c r="B2" s="59" t="str">
         <f>"Maio "&amp;AnoCalendário</f>
         <v>Maio 2021</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -4667,236 +4563,295 @@
     </row>
     <row r="3" spans="1:9" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
-      <c r="B3" s="21" t="str">
+      <c r="B3" s="38" t="str">
         <f>InícioDaSemana</f>
         <v>domingo</v>
       </c>
-      <c r="C3" s="22" t="str">
+      <c r="C3" s="46" t="str">
         <f t="shared" ref="C3:H3" si="0">TEXT(C4,"dddd")</f>
         <v>segunda-feira</v>
       </c>
-      <c r="D3" s="22" t="str">
+      <c r="D3" s="46" t="str">
         <f t="shared" si="0"/>
         <v>terça-feira</v>
       </c>
-      <c r="E3" s="22" t="str">
+      <c r="E3" s="46" t="str">
         <f t="shared" si="0"/>
         <v>quarta-feira</v>
       </c>
-      <c r="F3" s="22" t="str">
+      <c r="F3" s="46" t="str">
         <f t="shared" si="0"/>
         <v>quinta-feira</v>
       </c>
-      <c r="G3" s="22" t="str">
+      <c r="G3" s="46" t="str">
         <f t="shared" si="0"/>
         <v>sexta-feira</v>
       </c>
-      <c r="H3" s="23" t="str">
+      <c r="H3" s="38" t="str">
         <f t="shared" si="0"/>
         <v>sábado</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="43">
+      <c r="B4" s="39">
         <f t="array" ref="B4:H4">DiasESemanas+DATE(AnoCalendário,5,1)-WEEKDAY(DATE(AnoCalendário,5,1),(InícioDaSemana="segunda-feira")+1)+1</f>
         <v>44311</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="39">
         <v>44312</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="39">
         <v>44313</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="39">
         <v>44314</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="39">
         <v>44315</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="39">
         <v>44316</v>
       </c>
-      <c r="H4" s="43">
+      <c r="H4" s="39">
         <v>44317</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="44">
+      <c r="B6" s="41">
         <f t="array" ref="B6:H6">DiasESemanas+DATE(AnoCalendário,5,1)-WEEKDAY(DATE(AnoCalendário,5,1),(InícioDaSemana="segunda-feira")+1)+8</f>
         <v>44318</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="41">
         <v>44319</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="41">
         <v>44320</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="41">
         <v>44321</v>
       </c>
-      <c r="F6" s="44">
+      <c r="F6" s="41">
         <v>44322</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="41">
         <v>44323</v>
       </c>
-      <c r="H6" s="44">
+      <c r="H6" s="41">
         <v>44324</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="45">
+      <c r="B8" s="43">
         <f t="array" ref="B8:H8">DiasESemanas+DATE(AnoCalendário,5,1)-WEEKDAY(DATE(AnoCalendário,5,1),(InícioDaSemana="segunda-feira")+1)+15</f>
         <v>44325</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="43">
         <v>44326</v>
       </c>
-      <c r="D8" s="45">
+      <c r="D8" s="43">
         <v>44327</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="43">
         <v>44328</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="43">
         <v>44329</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="43">
         <v>44330</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="43">
         <v>44331</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" s="44">
+      <c r="B10" s="41">
         <f t="array" ref="B10:H10">DiasESemanas+DATE(AnoCalendário,5,1)-WEEKDAY(DATE(AnoCalendário,5,1),(InícioDaSemana="segunda-feira")+1)+22</f>
         <v>44332</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="41">
         <v>44333</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="41">
         <v>44334</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="41">
         <v>44335</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="41">
         <v>44336</v>
       </c>
-      <c r="G10" s="44">
+      <c r="G10" s="41">
         <v>44337</v>
       </c>
-      <c r="H10" s="44">
+      <c r="H10" s="41">
         <v>44338</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
-      <c r="B12" s="45">
+      <c r="B12" s="43">
         <f t="array" ref="B12:H12">DiasESemanas+DATE(AnoCalendário,5,1)-WEEKDAY(DATE(AnoCalendário,5,1),(InícioDaSemana="segunda-feira")+1)+29</f>
         <v>44339</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="43">
         <v>44340</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="43">
         <v>44341</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="43">
         <v>44342</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="43">
         <v>44343</v>
       </c>
-      <c r="G12" s="45">
+      <c r="G12" s="43">
         <v>44344</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="43">
         <v>44345</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" s="44">
+      <c r="B14" s="41">
         <f t="array" ref="B14:C14">DiasESemanas+DATE(AnoCalendário,5,1)-WEEKDAY(DATE(AnoCalendário,5,1),(InícioDaSemana="segunda-feira")+1)+36</f>
         <v>44346</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="41">
         <v>44347</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="69"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
     </row>
     <row r="15" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="71"/>
+      <c r="B15" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4928,7 +4883,6 @@
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="99" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4957,12 +4911,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="72" t="str">
+      <c r="B2" s="60" t="str">
         <f>"Junho "&amp;AnoCalendário</f>
         <v>Junho 2021</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -4970,236 +4924,236 @@
     </row>
     <row r="3" spans="1:9" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
-      <c r="B3" s="26" t="str">
+      <c r="B3" s="21" t="str">
         <f>InícioDaSemana</f>
         <v>domingo</v>
       </c>
-      <c r="C3" s="27" t="str">
+      <c r="C3" s="22" t="str">
         <f t="shared" ref="C3:H3" si="0">TEXT(C4,"dddd")</f>
         <v>segunda-feira</v>
       </c>
-      <c r="D3" s="27" t="str">
+      <c r="D3" s="22" t="str">
         <f t="shared" si="0"/>
         <v>terça-feira</v>
       </c>
-      <c r="E3" s="27" t="str">
+      <c r="E3" s="22" t="str">
         <f t="shared" si="0"/>
         <v>quarta-feira</v>
       </c>
-      <c r="F3" s="27" t="str">
+      <c r="F3" s="22" t="str">
         <f t="shared" si="0"/>
         <v>quinta-feira</v>
       </c>
-      <c r="G3" s="27" t="str">
+      <c r="G3" s="22" t="str">
         <f t="shared" si="0"/>
         <v>sexta-feira</v>
       </c>
-      <c r="H3" s="28" t="str">
+      <c r="H3" s="23" t="str">
         <f t="shared" si="0"/>
         <v>sábado</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="40">
+      <c r="B4" s="35">
         <f t="array" ref="B4:H4">DiasESemanas+DATE(AnoCalendário,6,1)-WEEKDAY(DATE(AnoCalendário,6,1),(InícioDaSemana="segunda-feira")+1)+1</f>
         <v>44346</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="35">
         <v>44347</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="35">
         <v>44348</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="35">
         <v>44349</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="35">
         <v>44350</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="35">
         <v>44351</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="35">
         <v>44352</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="41">
+      <c r="B6" s="36">
         <f t="array" ref="B6:H6">DiasESemanas+DATE(AnoCalendário,6,1)-WEEKDAY(DATE(AnoCalendário,6,1),(InícioDaSemana="segunda-feira")+1)+8</f>
         <v>44353</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="36">
         <v>44354</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="36">
         <v>44355</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="36">
         <v>44356</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="36">
         <v>44357</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="36">
         <v>44358</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="36">
         <v>44359</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="42">
+      <c r="B8" s="37">
         <f t="array" ref="B8:H8">DiasESemanas+DATE(AnoCalendário,6,1)-WEEKDAY(DATE(AnoCalendário,6,1),(InícioDaSemana="segunda-feira")+1)+15</f>
         <v>44360</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="37">
         <v>44361</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="37">
         <v>44362</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="37">
         <v>44363</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="37">
         <v>44364</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="37">
         <v>44365</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="37">
         <v>44366</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" s="41">
+      <c r="B10" s="36">
         <f t="array" ref="B10:H10">DiasESemanas+DATE(AnoCalendário,6,1)-WEEKDAY(DATE(AnoCalendário,6,1),(InícioDaSemana="segunda-feira")+1)+22</f>
         <v>44367</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="36">
         <v>44368</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="36">
         <v>44369</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="36">
         <v>44370</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="36">
         <v>44371</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="36">
         <v>44372</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="36">
         <v>44373</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
-      <c r="B12" s="42">
+      <c r="B12" s="37">
         <f t="array" ref="B12:H12">DiasESemanas+DATE(AnoCalendário,6,1)-WEEKDAY(DATE(AnoCalendário,6,1),(InícioDaSemana="segunda-feira")+1)+29</f>
         <v>44374</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="37">
         <v>44375</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="37">
         <v>44376</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="37">
         <v>44377</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="37">
         <v>44378</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="37">
         <v>44379</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="37">
         <v>44380</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" s="41">
+      <c r="B14" s="36">
         <f t="array" ref="B14:C14">DiasESemanas+DATE(AnoCalendário,6,1)-WEEKDAY(DATE(AnoCalendário,6,1),(InícioDaSemana="segunda-feira")+1)+36</f>
         <v>44381</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="36">
         <v>44382</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="74"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
     </row>
     <row r="15" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5260,12 +5214,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="72" t="str">
+      <c r="B2" s="60" t="str">
         <f>"Julho "&amp;AnoCalendário</f>
         <v>Julho 2021</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -5273,236 +5227,236 @@
     </row>
     <row r="3" spans="1:9" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
-      <c r="B3" s="26" t="str">
+      <c r="B3" s="21" t="str">
         <f>InícioDaSemana</f>
         <v>domingo</v>
       </c>
-      <c r="C3" s="27" t="str">
+      <c r="C3" s="22" t="str">
         <f t="shared" ref="C3:H3" si="0">TEXT(C4,"dddd")</f>
         <v>segunda-feira</v>
       </c>
-      <c r="D3" s="27" t="str">
+      <c r="D3" s="22" t="str">
         <f t="shared" si="0"/>
         <v>terça-feira</v>
       </c>
-      <c r="E3" s="27" t="str">
+      <c r="E3" s="22" t="str">
         <f t="shared" si="0"/>
         <v>quarta-feira</v>
       </c>
-      <c r="F3" s="27" t="str">
+      <c r="F3" s="22" t="str">
         <f t="shared" si="0"/>
         <v>quinta-feira</v>
       </c>
-      <c r="G3" s="27" t="str">
+      <c r="G3" s="22" t="str">
         <f t="shared" si="0"/>
         <v>sexta-feira</v>
       </c>
-      <c r="H3" s="28" t="str">
+      <c r="H3" s="23" t="str">
         <f t="shared" si="0"/>
         <v>sábado</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="40">
+      <c r="B4" s="35">
         <f t="array" ref="B4:H4">DiasESemanas+DATE(AnoCalendário,7,1)-WEEKDAY(DATE(AnoCalendário,7,1),(InícioDaSemana="segunda-feira")+1)+1</f>
         <v>44374</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="35">
         <v>44375</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="35">
         <v>44376</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="35">
         <v>44377</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="35">
         <v>44378</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="35">
         <v>44379</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="35">
         <v>44380</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="41">
+      <c r="B6" s="36">
         <f t="array" ref="B6:H6">DiasESemanas+DATE(AnoCalendário,7,1)-WEEKDAY(DATE(AnoCalendário,7,1),(InícioDaSemana="segunda-feira")+1)+8</f>
         <v>44381</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="36">
         <v>44382</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="36">
         <v>44383</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="36">
         <v>44384</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="36">
         <v>44385</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="36">
         <v>44386</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="36">
         <v>44387</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="42">
+      <c r="B8" s="37">
         <f t="array" ref="B8:H8">DiasESemanas+DATE(AnoCalendário,7,1)-WEEKDAY(DATE(AnoCalendário,7,1),(InícioDaSemana="segunda-feira")+1)+15</f>
         <v>44388</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="37">
         <v>44389</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="37">
         <v>44390</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="37">
         <v>44391</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="37">
         <v>44392</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="37">
         <v>44393</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="37">
         <v>44394</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" s="41">
+      <c r="B10" s="36">
         <f t="array" ref="B10:H10">DiasESemanas+DATE(AnoCalendário,7,1)-WEEKDAY(DATE(AnoCalendário,7,1),(InícioDaSemana="segunda-feira")+1)+22</f>
         <v>44395</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="36">
         <v>44396</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="36">
         <v>44397</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="36">
         <v>44398</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="36">
         <v>44399</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="36">
         <v>44400</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="36">
         <v>44401</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
-      <c r="B12" s="42">
+      <c r="B12" s="37">
         <f t="array" ref="B12:H12">DiasESemanas+DATE(AnoCalendário,7,1)-WEEKDAY(DATE(AnoCalendário,7,1),(InícioDaSemana="segunda-feira")+1)+29</f>
         <v>44402</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="37">
         <v>44403</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="37">
         <v>44404</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="37">
         <v>44405</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="37">
         <v>44406</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="37">
         <v>44407</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="37">
         <v>44408</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" s="41">
+      <c r="B14" s="36">
         <f t="array" ref="B14:C14">DiasESemanas+DATE(AnoCalendário,7,1)-WEEKDAY(DATE(AnoCalendário,7,1),(InícioDaSemana="segunda-feira")+1)+36</f>
         <v>44409</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="36">
         <v>44410</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="74"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
     </row>
     <row r="15" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5563,12 +5517,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="72" t="str">
+      <c r="B2" s="60" t="str">
         <f>"Agosto "&amp;AnoCalendário</f>
         <v>Agosto 2021</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -5576,236 +5530,236 @@
     </row>
     <row r="3" spans="1:9" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
-      <c r="B3" s="26" t="str">
+      <c r="B3" s="21" t="str">
         <f>InícioDaSemana</f>
         <v>domingo</v>
       </c>
-      <c r="C3" s="27" t="str">
+      <c r="C3" s="22" t="str">
         <f t="shared" ref="C3:H3" si="0">TEXT(C4,"dddd")</f>
         <v>segunda-feira</v>
       </c>
-      <c r="D3" s="27" t="str">
+      <c r="D3" s="22" t="str">
         <f t="shared" si="0"/>
         <v>terça-feira</v>
       </c>
-      <c r="E3" s="27" t="str">
+      <c r="E3" s="22" t="str">
         <f t="shared" si="0"/>
         <v>quarta-feira</v>
       </c>
-      <c r="F3" s="27" t="str">
+      <c r="F3" s="22" t="str">
         <f t="shared" si="0"/>
         <v>quinta-feira</v>
       </c>
-      <c r="G3" s="27" t="str">
+      <c r="G3" s="22" t="str">
         <f t="shared" si="0"/>
         <v>sexta-feira</v>
       </c>
-      <c r="H3" s="28" t="str">
+      <c r="H3" s="23" t="str">
         <f t="shared" si="0"/>
         <v>sábado</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="40">
+      <c r="B4" s="35">
         <f t="array" ref="B4:H4">DiasESemanas+DATE(AnoCalendário,8,1)-WEEKDAY(DATE(AnoCalendário,8,1),(InícioDaSemana="segunda-feira")+1)+1</f>
         <v>44409</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="35">
         <v>44410</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="35">
         <v>44411</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="35">
         <v>44412</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="35">
         <v>44413</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="35">
         <v>44414</v>
       </c>
-      <c r="H4" s="40">
+      <c r="H4" s="35">
         <v>44415</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="41">
+      <c r="B6" s="36">
         <f t="array" ref="B6:H6">DiasESemanas+DATE(AnoCalendário,8,1)-WEEKDAY(DATE(AnoCalendário,8,1),(InícioDaSemana="segunda-feira")+1)+8</f>
         <v>44416</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="36">
         <v>44417</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="36">
         <v>44418</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="36">
         <v>44419</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="36">
         <v>44420</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="36">
         <v>44421</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="36">
         <v>44422</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
     </row>
     <row r="8" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="42">
+      <c r="B8" s="37">
         <f t="array" ref="B8:H8">DiasESemanas+DATE(AnoCalendário,8,1)-WEEKDAY(DATE(AnoCalendário,8,1),(InícioDaSemana="segunda-feira")+1)+15</f>
         <v>44423</v>
       </c>
-      <c r="C8" s="42">
+      <c r="C8" s="37">
         <v>44424</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="37">
         <v>44425</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="37">
         <v>44426</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="37">
         <v>44427</v>
       </c>
-      <c r="G8" s="42">
+      <c r="G8" s="37">
         <v>44428</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="37">
         <v>44429</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" s="41">
+      <c r="B10" s="36">
         <f t="array" ref="B10:H10">DiasESemanas+DATE(AnoCalendário,8,1)-WEEKDAY(DATE(AnoCalendário,8,1),(InícioDaSemana="segunda-feira")+1)+22</f>
         <v>44430</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="36">
         <v>44431</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="36">
         <v>44432</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="36">
         <v>44433</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="36">
         <v>44434</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="36">
         <v>44435</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="36">
         <v>44436</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
-      <c r="B12" s="42">
+      <c r="B12" s="37">
         <f t="array" ref="B12:H12">DiasESemanas+DATE(AnoCalendário,8,1)-WEEKDAY(DATE(AnoCalendário,8,1),(InícioDaSemana="segunda-feira")+1)+29</f>
         <v>44437</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="37">
         <v>44438</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="37">
         <v>44439</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="37">
         <v>44440</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="37">
         <v>44441</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="37">
         <v>44442</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="37">
         <v>44443</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
     </row>
     <row r="14" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" s="41">
+      <c r="B14" s="36">
         <f t="array" ref="B14:C14">DiasESemanas+DATE(AnoCalendário,8,1)-WEEKDAY(DATE(AnoCalendário,8,1),(InícioDaSemana="segunda-feira")+1)+36</f>
         <v>44444</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="36">
         <v>44445</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="74"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
     </row>
     <row r="15" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5866,12 +5820,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="77" t="str">
+      <c r="B2" s="65" t="str">
         <f>"Setembro "&amp;AnoCalendário</f>
         <v>Setembro 2021</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -5910,205 +5864,205 @@
     </row>
     <row r="4" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
-      <c r="B4" s="37">
+      <c r="B4" s="32">
         <f t="array" ref="B4:H4">DiasESemanas+DATE(AnoCalendário,9,1)-WEEKDAY(DATE(AnoCalendário,9,1),(InícioDaSemana="segunda-feira")+1)+1</f>
         <v>44437</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="32">
         <v>44438</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="32">
         <v>44439</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="32">
         <v>44440</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="32">
         <v>44441</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="32">
         <v>44442</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="32">
         <v>44443</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
     </row>
     <row r="6" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="38">
+      <c r="B6" s="33">
         <f t="array" ref="B6:H6">DiasESemanas+DATE(AnoCalendário,9,1)-WEEKDAY(DATE(AnoCalendário,9,1),(InícioDaSemana="segunda-feira")+1)+8</f>
         <v>44444</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="33">
         <v>44445</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="33">
         <v>44446</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="33">
         <v>44447</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="33">
         <v>44448</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="33">
         <v>44449</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="33">
         <v>44450</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
-      <c r="B8" s="39">
+      <c r="B8" s="34">
         <f t="array" ref="B8:H8">DiasESemanas+DATE(AnoCalendário,9,1)-WEEKDAY(DATE(AnoCalendário,9,1),(InícioDaSemana="segunda-feira")+1)+15</f>
         <v>44451</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="34">
         <v>44452</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="34">
         <v>44453</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="34">
         <v>44454</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="34">
         <v>44455</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="34">
         <v>44456</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="34">
         <v>44457</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
     </row>
     <row r="10" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
-      <c r="B10" s="38">
+      <c r="B10" s="33">
         <f t="array" ref="B10:H10">DiasESemanas+DATE(AnoCalendário,9,1)-WEEKDAY(DATE(AnoCalendário,9,1),(InícioDaSemana="segunda-feira")+1)+22</f>
         <v>44458</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="33">
         <v>44459</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="33">
         <v>44460</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="33">
         <v>44461</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="33">
         <v>44462</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="33">
         <v>44463</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="33">
         <v>44464</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
-      <c r="B12" s="39">
+      <c r="B12" s="34">
         <f t="array" ref="B12:H12">DiasESemanas+DATE(AnoCalendário,9,1)-WEEKDAY(DATE(AnoCalendário,9,1),(InícioDaSemana="segunda-feira")+1)+29</f>
         <v>44465</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="34">
         <v>44466</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="34">
         <v>44467</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="34">
         <v>44468</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="34">
         <v>44469</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="34">
         <v>44470</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="34">
         <v>44471</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:9" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
-      <c r="B14" s="38">
+      <c r="B14" s="33">
         <f t="array" ref="B14:C14">DiasESemanas+DATE(AnoCalendário,9,1)-WEEKDAY(DATE(AnoCalendário,9,1),(InícioDaSemana="segunda-feira")+1)+36</f>
         <v>44472</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="33">
         <v>44473</v>
       </c>
-      <c r="D14" s="78" t="s">
+      <c r="D14" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="79"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="67"/>
     </row>
     <row r="15" spans="1:9" s="14" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="81"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="3">
